--- a/PSM_TestReport.xlsx
+++ b/PSM_TestReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="667">
   <si>
     <t>Test case id</t>
   </si>
@@ -3415,42 +3415,213 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Search user báo lỗi sai</t>
-  </si>
-  <si>
-    <t>Add user không chọn Studio bị lỗi</t>
-  </si>
-  <si>
-    <t>Edit user thành công không có thông báo</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Edit lỗi 6 32 Studio Name</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Edit lỗi 6 32 Studio Adress</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Edit lỗi 6 32 Studio Mail</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Edit lỗi 10 12 Studio Phone</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Add lỗi 6 32 Studio Name</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Add lỗi 6 32 Studio Adress</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Add lỗi 6 32 Studio Mail</t>
-  </si>
-  <si>
-    <t>Quản lý Studio. Add lỗi 10 12 Studio Phone</t>
-  </si>
-  <si>
-    <t>Quản lý quận huyện add district lỗi 6 32, Xem 
-District Detail không có quận huyện thông báo
-sai</t>
+    <r>
+      <t xml:space="preserve">Valid data is:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">Studio name : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+Not special character , Not empty.
+In range 6 ~ 32 character.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Adress :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> Not empty
+In range 6 ~ 32 character.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Email :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> Correct form ,Not empty,
+Just allow "@","." character
+In range 6 ~ 32 character.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Number :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> Must be number, Not empty
+In range 10 ~ 12 character.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Coordinate :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> Not empty, Correct form
+Icon Studio Adress : Not empty
+Background Picture Adress : Not empty.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Bảng trạng thái hợp đồng nút View chưa làm gì cả</t>
+  </si>
+  <si>
+    <t>Login form : 
+Màn hình Login chưa Việt hóa</t>
+  </si>
+  <si>
+    <t>User Manager form : 
+Thông báo số lượng User tìm thấy sai và chưa VH
+Nút Edit chưa VH
+Edit user thành công không có thông báo</t>
+  </si>
+  <si>
+    <t>Studio Manager form :
+Thông báo tìm thấy Studio sai và chưa VH
+Nút Edit chưa VH
+Nút Delete chưa VH
+Xóa Studio cần sửa thông báo và chưa VH
+Edit Studio lỗi giới hạn kí tự ở tất cả các field.
+Add Studio lỗi giới hạn kí tự ở tất cả các field.</t>
+  </si>
+  <si>
+    <t>District Manager form : 
+Lỗi giới hạn kí tự khi add new district
+Xem link District không có Studio thông báo sai
+Lỗi giới hạn kí tự khi chỉnh sửa tên district sau khi ấn vào link district</t>
+  </si>
+  <si>
+    <t>Thông tin Studio form : 
+Chưa check bất kì lỗi nào</t>
+  </si>
+  <si>
+    <t>Quản lí gói hàng form : 
+Thêm gói hàng và sửa gói hàng chưa bắt lỗi giới hạn kí tự
+Các nút bấm chưa VH
+Sửa thông báo xóa gói hàng không thành công.
+Thông báo tìm thấy gói hàng chưa VH.</t>
+  </si>
+  <si>
+    <t>Test view Picture Detail page</t>
+  </si>
+  <si>
+    <t>1. Click on Picture want to view Picture Detail</t>
+  </si>
+  <si>
+    <t>Album detail page must be open</t>
+  </si>
+  <si>
+    <t>Test Update button</t>
+  </si>
+  <si>
+    <t>1. Update Picture Detail.
+2. Click on Update button</t>
+  </si>
+  <si>
+    <t>Picture detail must be update</t>
+  </si>
+  <si>
+    <t>Test Delete button</t>
+  </si>
+  <si>
+    <t>1. Click on Delete button</t>
+  </si>
+  <si>
+    <t>Quản lí ảnh : 
+Thông báo không tìm thấy ảnh sai
+Form tìm thấy ảnh chưa VH
+Hiện thị tên khách hàng ở cả tìm kiếm bằng ID hợp đồng
+Lỗi css ở tên khách hàng khi tìm thấy
+Xóa link contract ID
+Form View Picture chưa VH
+Lỗi khi không tìm thấy ảnh thông báo sai
+Update ảnh chưa VH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lí hợp đồng form : 
+Thêm SDT vào form tìm thấy
+Thông báo tìm thấy chưa VH
+Nút Edit chưa VH
+Form Chi tiết gói hàng ở Contract ID link chưa VH
+Form Add contract Detail chưa VH chưa check lỗi
+Xóa contract Detail thông báo lỗi cần sửa
+Form Customer Detail cần sửa và thiếu SDT
+Thêm chữ Trạng thái hợp đồng ở list trạng thái
+Chưa VH giới tính
+Chưa bỏ VAT
+Nút Submit chưa VH
+</t>
   </si>
 </sst>
 </file>
@@ -3940,7 +4111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4171,6 +4342,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7214,10 +7394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView topLeftCell="A187" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7830,7 +8010,7 @@
       </c>
       <c r="J26" s="79"/>
     </row>
-    <row r="27" spans="1:10" ht="186" thickBot="1">
+    <row r="27" spans="1:10" ht="214.5" thickBot="1">
       <c r="A27" s="3">
         <f>A23+1</f>
         <v>18</v>
@@ -7855,7 +8035,7 @@
         <v>275</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>438</v>
+        <v>649</v>
       </c>
       <c r="J27" s="79"/>
     </row>
@@ -11993,7 +12173,7 @@
     </row>
     <row r="180" spans="1:9" ht="105.75" thickBot="1">
       <c r="A180" s="5">
-        <f t="shared" ref="A180:A191" si="9">A179+1</f>
+        <f t="shared" ref="A180:A194" si="9">A179+1</f>
         <v>161</v>
       </c>
       <c r="B180" s="16" t="s">
@@ -12198,7 +12378,7 @@
         <v>293</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>295</v>
+        <v>659</v>
       </c>
       <c r="H187" s="27" t="s">
         <v>275</v>
@@ -12316,6 +12496,84 @@
         <v>275</v>
       </c>
       <c r="I191" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="45.75" thickBot="1">
+      <c r="A192" s="5">
+        <f t="shared" si="9"/>
+        <v>173</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="G192" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H192" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="I192" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="45.75" thickBot="1">
+      <c r="A193" s="5">
+        <f t="shared" si="9"/>
+        <v>174</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="G193" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="H193" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="I193" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A194" s="5">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="G194" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="H194" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="I194" s="17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12929,19 +13187,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
@@ -12996,65 +13254,51 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="C5" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="C6" t="s">
+    <row r="4" spans="1:9" ht="30">
+      <c r="B4" s="76"/>
+      <c r="C4" s="89" t="s">
+        <v>651</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="C8" t="s">
+      <c r="F4" s="83"/>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="B5" s="76"/>
+      <c r="C5" s="89" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" t="s">
+      <c r="D5" s="90" t="s">
+        <v>655</v>
+      </c>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="B6" s="76"/>
+      <c r="C6" s="89" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" t="s">
+      <c r="D6" s="90" t="s">
+        <v>656</v>
+      </c>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:9" ht="135">
+      <c r="C7" s="89" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="C11" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="C13" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="75">
-      <c r="C16" s="84" t="s">
-        <v>660</v>
-      </c>
+      <c r="D7" s="90" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="240">
+      <c r="D8" s="89" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
